--- a/analysis/data/raw_data/2015 Wenatchee Steelhead Redd Modeling Data - Final.xlsx
+++ b/analysis/data/raw_data/2015 Wenatchee Steelhead Redd Modeling Data - Final.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofwa-my.sharepoint.com/personal/kevin_see_dfw_wa_gov/Documents/Documents/Git/MyProjects/UCSthdReddObsErr/analysis/data/raw_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_7DA88BACBAD55CC1E02A440E6C6B58F20FC40FED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64269BA4-BB56-4914-9D5B-1166FF331750}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="40" windowWidth="17240" windowHeight="11060" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey Data" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Reach Associations'!$A$1:$O$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Survey Data'!$A$1:$O$66</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1151,7 +1168,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1578,6 +1595,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1618,9 +1638,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1630,6 +1647,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1921,28 +1941,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.83203125" style="19"/>
-    <col min="4" max="4" width="15.83203125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="8.83203125" style="19"/>
-    <col min="10" max="10" width="10.5" style="19" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.81640625" style="19"/>
+    <col min="4" max="4" width="15.81640625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="8.81640625" style="19"/>
+    <col min="10" max="10" width="10.453125" style="19" customWidth="1"/>
     <col min="11" max="11" width="10" style="19" customWidth="1"/>
-    <col min="12" max="13" width="8.83203125" style="19"/>
-    <col min="14" max="14" width="25.1640625" style="19" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="19"/>
+    <col min="12" max="13" width="8.81640625" style="19"/>
+    <col min="14" max="14" width="25.1796875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="8.81640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="30">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1987,7 +2007,7 @@
       </c>
       <c r="O1" s="21"/>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
@@ -2033,7 +2053,7 @@
       </c>
       <c r="O2" s="21"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
@@ -2078,7 +2098,7 @@
         <v>9.901050846245663E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
@@ -2123,7 +2143,7 @@
         <v>2.2277364404052743E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>13</v>
       </c>
@@ -2168,7 +2188,7 @@
         <v>3.4653677961859824E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>13</v>
       </c>
@@ -2213,7 +2233,7 @@
         <v>5.445577965435115E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>13</v>
       </c>
@@ -2258,7 +2278,7 @@
         <v>1.0643629659714089E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>13</v>
       </c>
@@ -2303,7 +2323,7 @@
         <v>1.2871366100119364E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>13</v>
       </c>
@@ -2348,7 +2368,7 @@
         <v>2.1287259319428177E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>13</v>
       </c>
@@ -2393,7 +2413,7 @@
         <v>3.8072435293972224E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
         <v>13</v>
       </c>
@@ -2438,7 +2458,7 @@
         <v>2.2524890675208886E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
         <v>13</v>
       </c>
@@ -2483,7 +2503,7 @@
         <v>2.4010048302145734E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
@@ -2528,7 +2548,7 @@
         <v>2.3019943217521168E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
         <v>13</v>
       </c>
@@ -2573,7 +2593,7 @@
         <v>1.881199660786676E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>13</v>
       </c>
@@ -2618,7 +2638,7 @@
         <v>1.6089207625149204E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>13</v>
       </c>
@@ -2663,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
         <v>13</v>
       </c>
@@ -2708,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
         <v>13</v>
       </c>
@@ -2753,7 +2773,7 @@
         <v>1.5780249713987925E-6</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
         <v>13</v>
       </c>
@@ -2798,7 +2818,7 @@
         <v>1.5780249713987925E-6</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="s">
         <v>13</v>
       </c>
@@ -2843,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="19" t="s">
         <v>13</v>
       </c>
@@ -2891,7 +2911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="19" t="s">
         <v>13</v>
       </c>
@@ -2936,7 +2956,7 @@
         <v>1.5780249713987925E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="19" t="s">
         <v>13</v>
       </c>
@@ -2981,7 +3001,7 @@
         <v>1.5780249713987925E-6</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="19" t="s">
         <v>13</v>
       </c>
@@ -3026,7 +3046,7 @@
         <v>1.5780249713987925E-6</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="19" t="s">
         <v>13</v>
       </c>
@@ -3071,7 +3091,7 @@
         <v>1.5780249713987925E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
         <v>13</v>
       </c>
@@ -3116,7 +3136,7 @@
         <v>1.2540564398802435E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="19" t="s">
         <v>13</v>
       </c>
@@ -3161,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="19" t="s">
         <v>13</v>
       </c>
@@ -3206,7 +3226,7 @@
         <v>1.4103130085214836E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="19" t="s">
         <v>13</v>
       </c>
@@ -3251,7 +3271,7 @@
         <v>2.4794182668157703E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="19" t="s">
         <v>13</v>
       </c>
@@ -3296,7 +3316,7 @@
         <v>2.4794182668157703E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="19" t="s">
         <v>13</v>
       </c>
@@ -3341,7 +3361,7 @@
         <v>5.3720729114341691E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="19" t="s">
         <v>13</v>
       </c>
@@ -3386,7 +3406,7 @@
         <v>8.2647275560525675E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
         <v>13</v>
       </c>
@@ -3431,7 +3451,7 @@
         <v>1.2810327711881481E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="19" t="s">
         <v>13</v>
       </c>
@@ -3476,7 +3496,7 @@
         <v>1.6529455112105135E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="19" t="s">
         <v>13</v>
       </c>
@@ -3521,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="19" t="s">
         <v>13</v>
       </c>
@@ -3566,7 +3586,7 @@
         <v>1.9008873378920907E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
         <v>13</v>
       </c>
@@ -3611,7 +3631,7 @@
         <v>1.9008873378920907E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="19" t="s">
         <v>13</v>
       </c>
@@ -3656,7 +3676,7 @@
         <v>1.9008873378920907E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="19" t="s">
         <v>13</v>
       </c>
@@ -3701,7 +3721,7 @@
         <v>1.8182400623315649E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="19" t="s">
         <v>13</v>
       </c>
@@ -3746,7 +3766,7 @@
         <v>1.4050036845289366E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="19" t="s">
         <v>13</v>
       </c>
@@ -3791,7 +3811,7 @@
         <v>3.3058910224210269E-5</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="19" t="s">
         <v>13</v>
       </c>
@@ -3836,7 +3856,7 @@
         <v>4.4660397611713766E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="19" t="s">
         <v>13</v>
       </c>
@@ -3881,7 +3901,7 @@
         <v>8.9320795223427532E-5</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="19" t="s">
         <v>13</v>
       </c>
@@ -3926,7 +3946,7 @@
         <v>8.9320795223427532E-5</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="19" t="s">
         <v>13</v>
       </c>
@@ -3971,7 +3991,7 @@
         <v>1.3398119283514128E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="19" t="s">
         <v>13</v>
       </c>
@@ -4016,7 +4036,7 @@
         <v>1.7864159044685506E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="19" t="s">
         <v>13</v>
       </c>
@@ -4061,7 +4081,7 @@
         <v>3.1262278328199637E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="19" t="s">
         <v>13</v>
       </c>
@@ -4106,7 +4126,7 @@
         <v>4.0194357850542389E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="19" t="s">
         <v>13</v>
       </c>
@@ -4151,7 +4171,7 @@
         <v>4.0194357850542389E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="19" t="s">
         <v>13</v>
       </c>
@@ -4196,7 +4216,7 @@
         <v>4.0194357850542389E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="19" t="s">
         <v>13</v>
       </c>
@@ -4241,7 +4261,7 @@
         <v>2.2330198805856882E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="19" t="s">
         <v>13</v>
       </c>
@@ -4286,7 +4306,7 @@
         <v>1.3398119283514128E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="19" t="s">
         <v>13</v>
       </c>
@@ -4331,7 +4351,7 @@
         <v>1.3398119283514128E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="19" t="s">
         <v>13</v>
       </c>
@@ -4376,7 +4396,7 @@
         <v>2.0428809196723196E-6</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="19" t="s">
         <v>13</v>
       </c>
@@ -4421,7 +4441,7 @@
         <v>2.0428809196723196E-6</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="19" t="s">
         <v>13</v>
       </c>
@@ -4466,7 +4486,7 @@
         <v>8.1715236786892783E-6</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="19" t="s">
         <v>13</v>
       </c>
@@ -4511,7 +4531,7 @@
         <v>1.6343047357378557E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="19" t="s">
         <v>13</v>
       </c>
@@ -4556,7 +4576,7 @@
         <v>2.9621773335248635E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="19" t="s">
         <v>13</v>
       </c>
@@ -4601,7 +4621,7 @@
         <v>1.7426001926010006E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="19" t="s">
         <v>13</v>
       </c>
@@ -4646,7 +4666,7 @@
         <v>4.698626115246335E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="19" t="s">
         <v>13</v>
       </c>
@@ -4691,7 +4711,7 @@
         <v>6.0264987130333431E-5</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="19" t="s">
         <v>13</v>
       </c>
@@ -4736,7 +4756,7 @@
         <v>8.1715236786892786E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="19" t="s">
         <v>13</v>
       </c>
@@ -4781,7 +4801,7 @@
         <v>7.9672355867220463E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="19" t="s">
         <v>13</v>
       </c>
@@ -4826,7 +4846,7 @@
         <v>7.558659402787583E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="19" t="s">
         <v>13</v>
       </c>
@@ -4871,7 +4891,7 @@
         <v>7.4565153568039675E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="19" t="s">
         <v>13</v>
       </c>
@@ -4917,7 +4937,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:O67">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O67">
     <sortCondition ref="B2:B67"/>
     <sortCondition ref="E2:E67"/>
   </sortState>
@@ -4931,49 +4951,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X261"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="28"/>
-    <col min="2" max="2" width="11.1640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="28"/>
-    <col min="4" max="4" width="11.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="28" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="9.1640625" style="28"/>
-    <col min="13" max="13" width="11.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1640625" style="28"/>
+    <col min="1" max="1" width="9.1796875" style="28"/>
+    <col min="2" max="2" width="11.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="28"/>
+    <col min="4" max="4" width="11.6328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="9.1796875" style="28"/>
+    <col min="13" max="13" width="11.453125" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="L1" s="35"/>
       <c r="M1" s="36"/>
-      <c r="N1" s="89" t="s">
+      <c r="N1" s="90" t="s">
         <v>307</v>
       </c>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="92" t="s">
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="93" t="s">
         <v>308</v>
       </c>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="93" t="s">
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="94" t="s">
         <v>309</v>
       </c>
-      <c r="W1" s="94"/>
-      <c r="X1" s="95"/>
-    </row>
-    <row r="2" spans="1:24" ht="42">
+      <c r="W1" s="95"/>
+      <c r="X1" s="96"/>
+    </row>
+    <row r="2" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
         <v>42</v>
       </c>
@@ -4998,7 +5018,7 @@
       <c r="H2" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="103" t="s">
+      <c r="I2" s="89" t="s">
         <v>364</v>
       </c>
       <c r="L2" s="59" t="s">
@@ -5041,7 +5061,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="28">
         <v>2015</v>
       </c>
@@ -5106,7 +5126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="28">
         <v>2015</v>
       </c>
@@ -5163,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="28">
         <v>2015</v>
       </c>
@@ -5226,7 +5246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="28">
         <v>2015</v>
       </c>
@@ -5289,7 +5309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="28">
         <v>2015</v>
       </c>
@@ -5352,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="28">
         <v>2015</v>
       </c>
@@ -5415,7 +5435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="28">
         <v>2015</v>
       </c>
@@ -5478,7 +5498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="28">
         <v>2015</v>
       </c>
@@ -5541,7 +5561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="28">
         <v>2015</v>
       </c>
@@ -5604,7 +5624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="28">
         <v>2015</v>
       </c>
@@ -5667,7 +5687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="28">
         <v>2015</v>
       </c>
@@ -5726,7 +5746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="28">
         <v>2015</v>
       </c>
@@ -5783,7 +5803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="28">
         <v>2015</v>
       </c>
@@ -5846,7 +5866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="28">
         <v>2015</v>
       </c>
@@ -5909,7 +5929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="28">
         <v>2015</v>
       </c>
@@ -5972,7 +5992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="28">
         <v>2015</v>
       </c>
@@ -6035,7 +6055,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="28">
         <v>2015</v>
       </c>
@@ -6098,7 +6118,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="28">
         <v>2015</v>
       </c>
@@ -6161,7 +6181,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="28">
         <v>2015</v>
       </c>
@@ -6224,7 +6244,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" s="28">
         <v>2015</v>
       </c>
@@ -6287,7 +6307,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" s="28">
         <v>2015</v>
       </c>
@@ -6350,7 +6370,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" s="28">
         <v>2015</v>
       </c>
@@ -6413,7 +6433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" s="28">
         <v>2015</v>
       </c>
@@ -6478,7 +6498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" s="28">
         <v>2015</v>
       </c>
@@ -6541,7 +6561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>2015</v>
       </c>
@@ -6604,7 +6624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" s="28">
         <v>2015</v>
       </c>
@@ -6667,7 +6687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" s="28">
         <v>2015</v>
       </c>
@@ -6730,7 +6750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" s="28">
         <v>2015</v>
       </c>
@@ -6793,7 +6813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" s="28">
         <v>2015</v>
       </c>
@@ -6856,7 +6876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" s="28">
         <v>2015</v>
       </c>
@@ -6919,7 +6939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" s="28">
         <v>2015</v>
       </c>
@@ -6982,7 +7002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" s="28">
         <v>2015</v>
       </c>
@@ -7045,7 +7065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" s="28">
         <v>2015</v>
       </c>
@@ -7108,7 +7128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36" s="28">
         <v>2015</v>
       </c>
@@ -7171,7 +7191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37" s="28">
         <v>2015</v>
       </c>
@@ -7226,7 +7246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38" s="28">
         <v>2015</v>
       </c>
@@ -7273,7 +7293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" s="28">
         <v>2015</v>
       </c>
@@ -7336,7 +7356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" s="28">
         <v>2015</v>
       </c>
@@ -7399,7 +7419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41" s="28">
         <v>2015</v>
       </c>
@@ -7462,7 +7482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42" s="28">
         <v>2015</v>
       </c>
@@ -7519,7 +7539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43" s="28">
         <v>2015</v>
       </c>
@@ -7582,7 +7602,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44" s="28">
         <v>2015</v>
       </c>
@@ -7645,7 +7665,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45" s="28">
         <v>2015</v>
       </c>
@@ -7708,7 +7728,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46" s="28">
         <v>2015</v>
       </c>
@@ -7771,7 +7791,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47" s="28">
         <v>2015</v>
       </c>
@@ -7828,7 +7848,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48" s="28">
         <v>2015</v>
       </c>
@@ -7891,7 +7911,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49" s="28">
         <v>2015</v>
       </c>
@@ -7948,7 +7968,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" s="28">
         <v>2015</v>
       </c>
@@ -8005,7 +8025,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A51" s="28">
         <v>2015</v>
       </c>
@@ -8070,7 +8090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A52" s="28">
         <v>2015</v>
       </c>
@@ -8133,7 +8153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A53" s="28">
         <v>2015</v>
       </c>
@@ -8196,7 +8216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A54" s="28">
         <v>2015</v>
       </c>
@@ -8259,7 +8279,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55" s="28">
         <v>2015</v>
       </c>
@@ -8316,7 +8336,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A56" s="28">
         <v>2015</v>
       </c>
@@ -8379,7 +8399,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57" s="28">
         <v>2015</v>
       </c>
@@ -8442,7 +8462,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A58" s="28">
         <v>2015</v>
       </c>
@@ -8502,7 +8522,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59" s="28">
         <v>2015</v>
       </c>
@@ -8565,7 +8585,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A60" s="28">
         <v>2015</v>
       </c>
@@ -8628,7 +8648,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A61" s="28">
         <v>2015</v>
       </c>
@@ -8691,7 +8711,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62" s="28">
         <v>2015</v>
       </c>
@@ -8754,7 +8774,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63" s="28">
         <v>2015</v>
       </c>
@@ -8809,7 +8829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64" s="28">
         <v>2015</v>
       </c>
@@ -8856,7 +8876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:24">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A65" s="28">
         <v>2015</v>
       </c>
@@ -8903,7 +8923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:24">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A66" s="28">
         <v>2015</v>
       </c>
@@ -8956,7 +8976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:24">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A67" s="28">
         <v>2015</v>
       </c>
@@ -9003,7 +9023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:24">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A68" s="28">
         <v>2015</v>
       </c>
@@ -9050,7 +9070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:24">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A69" s="28">
         <v>2015</v>
       </c>
@@ -9097,7 +9117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:24">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A70" s="28">
         <v>2015</v>
       </c>
@@ -9144,7 +9164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:24">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A71" s="28">
         <v>2015</v>
       </c>
@@ -9191,7 +9211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:24">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A72" s="28">
         <v>2015</v>
       </c>
@@ -9238,7 +9258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:24">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A73" s="28">
         <v>2015</v>
       </c>
@@ -9285,7 +9305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:24">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A74" s="28">
         <v>2015</v>
       </c>
@@ -9338,7 +9358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:24">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A75" s="28">
         <v>2015</v>
       </c>
@@ -9387,7 +9407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:24">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A76" s="28">
         <v>2015</v>
       </c>
@@ -9434,7 +9454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:24">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A77" s="28">
         <v>2015</v>
       </c>
@@ -9481,7 +9501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:24">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A78" s="28">
         <v>2015</v>
       </c>
@@ -9528,7 +9548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:24">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A79" s="28">
         <v>2015</v>
       </c>
@@ -9575,7 +9595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:24">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A80" s="28">
         <v>2015</v>
       </c>
@@ -9622,7 +9642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:24">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A81" s="28">
         <v>2015</v>
       </c>
@@ -9675,7 +9695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:24">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A82" s="28">
         <v>2015</v>
       </c>
@@ -9722,7 +9742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:24">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A83" s="28">
         <v>2015</v>
       </c>
@@ -9769,7 +9789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:24">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A84" s="28">
         <v>2015</v>
       </c>
@@ -9822,7 +9842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:24">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A85" s="28">
         <v>2015</v>
       </c>
@@ -9875,7 +9895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:24">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A86" s="28">
         <v>2015</v>
       </c>
@@ -9930,7 +9950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:24">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A87" s="28">
         <v>2015</v>
       </c>
@@ -9983,7 +10003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:24">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A88" s="28">
         <v>2015</v>
       </c>
@@ -10030,7 +10050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:24">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A89" s="28">
         <v>2015</v>
       </c>
@@ -10083,7 +10103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:24">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A90" s="28">
         <v>2015</v>
       </c>
@@ -10136,7 +10156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:24">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A91" s="28">
         <v>2015</v>
       </c>
@@ -10183,7 +10203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:24">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A92" s="28">
         <v>2015</v>
       </c>
@@ -10236,7 +10256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:24">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A93" s="28">
         <v>2015</v>
       </c>
@@ -10289,7 +10309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:24">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A94" s="28">
         <v>2015</v>
       </c>
@@ -10336,7 +10356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:24">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A95" s="28">
         <v>2015</v>
       </c>
@@ -10383,7 +10403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:24">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A96" s="28">
         <v>2015</v>
       </c>
@@ -10430,7 +10450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:24">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A97" s="28">
         <v>2015</v>
       </c>
@@ -10477,7 +10497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:24">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A98" s="28">
         <v>2015</v>
       </c>
@@ -10503,7 +10523,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="99" spans="1:24">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A99" s="28">
         <v>2015</v>
       </c>
@@ -10523,7 +10543,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="100" spans="1:24">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A100" s="28">
         <v>2015</v>
       </c>
@@ -10543,7 +10563,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="101" spans="1:24">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A101" s="28">
         <v>2015</v>
       </c>
@@ -10563,7 +10583,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="102" spans="1:24">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A102" s="28">
         <v>2015</v>
       </c>
@@ -10589,7 +10609,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:24">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A103" s="28">
         <v>2015</v>
       </c>
@@ -10609,7 +10629,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="104" spans="1:24">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A104" s="28">
         <v>2015</v>
       </c>
@@ -10629,7 +10649,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="105" spans="1:24">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A105" s="28">
         <v>2015</v>
       </c>
@@ -10649,7 +10669,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="106" spans="1:24">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A106" s="28">
         <v>2015</v>
       </c>
@@ -10669,7 +10689,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="107" spans="1:24">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A107" s="28">
         <v>2015</v>
       </c>
@@ -10689,7 +10709,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="108" spans="1:24">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A108" s="28">
         <v>2015</v>
       </c>
@@ -10709,7 +10729,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="109" spans="1:24">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A109" s="28">
         <v>2015</v>
       </c>
@@ -10735,7 +10755,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="110" spans="1:24">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A110" s="28">
         <v>2015</v>
       </c>
@@ -10755,7 +10775,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="111" spans="1:24">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A111" s="28">
         <v>2015</v>
       </c>
@@ -10781,7 +10801,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:24">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A112" s="28">
         <v>2015</v>
       </c>
@@ -10807,7 +10827,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="28">
         <v>2015</v>
       </c>
@@ -10833,7 +10853,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="28">
         <v>2015</v>
       </c>
@@ -10853,7 +10873,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="28">
         <v>2015</v>
       </c>
@@ -10879,7 +10899,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="28">
         <v>2015</v>
       </c>
@@ -10905,7 +10925,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="28">
         <v>2015</v>
       </c>
@@ -10925,7 +10945,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="28">
         <v>2015</v>
       </c>
@@ -10951,7 +10971,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="28">
         <v>2015</v>
       </c>
@@ -10977,7 +10997,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="28">
         <v>2015</v>
       </c>
@@ -11003,7 +11023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="28">
         <v>2015</v>
       </c>
@@ -11023,7 +11043,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="28">
         <v>2015</v>
       </c>
@@ -11049,7 +11069,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="28">
         <v>2015</v>
       </c>
@@ -11075,7 +11095,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="28">
         <v>2015</v>
       </c>
@@ -11095,7 +11115,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="28">
         <v>2015</v>
       </c>
@@ -11115,7 +11135,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="28">
         <v>2015</v>
       </c>
@@ -11141,7 +11161,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="28">
         <v>2015</v>
       </c>
@@ -11161,7 +11181,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="28">
         <v>2015</v>
       </c>
@@ -11181,7 +11201,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="28">
         <v>2015</v>
       </c>
@@ -11207,7 +11227,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="28">
         <v>2015</v>
       </c>
@@ -11233,7 +11253,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="28">
         <v>2015</v>
       </c>
@@ -11259,7 +11279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="28">
         <v>2015</v>
       </c>
@@ -11285,7 +11305,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="28">
         <v>2015</v>
       </c>
@@ -11305,7 +11325,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="28">
         <v>2015</v>
       </c>
@@ -11325,7 +11345,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="28">
         <v>2015</v>
       </c>
@@ -11345,7 +11365,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="28">
         <v>2015</v>
       </c>
@@ -11365,7 +11385,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="28">
         <v>2015</v>
       </c>
@@ -11385,7 +11405,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="28">
         <v>2015</v>
       </c>
@@ -11405,7 +11425,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="28">
         <v>2015</v>
       </c>
@@ -11425,7 +11445,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="28">
         <v>2015</v>
       </c>
@@ -11445,7 +11465,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="28">
         <v>2015</v>
       </c>
@@ -11465,7 +11485,7 @@
         <v>42135</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="28">
         <v>2015</v>
       </c>
@@ -11485,7 +11505,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="28">
         <v>2015</v>
       </c>
@@ -11505,7 +11525,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="28">
         <v>2015</v>
       </c>
@@ -11525,7 +11545,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="28">
         <v>2015</v>
       </c>
@@ -11545,7 +11565,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="28">
         <v>2015</v>
       </c>
@@ -11565,7 +11585,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="28">
         <v>2015</v>
       </c>
@@ -11585,7 +11605,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="28">
         <v>2015</v>
       </c>
@@ -11605,7 +11625,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="28">
         <v>2015</v>
       </c>
@@ -11625,7 +11645,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="28">
         <v>2015</v>
       </c>
@@ -11651,7 +11671,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="28">
         <v>2015</v>
       </c>
@@ -11671,7 +11691,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="28">
         <v>2015</v>
       </c>
@@ -11691,7 +11711,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="28">
         <v>2015</v>
       </c>
@@ -11717,7 +11737,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="28">
         <v>2015</v>
       </c>
@@ -11737,7 +11757,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="28">
         <v>2015</v>
       </c>
@@ -11757,7 +11777,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="28">
         <v>2015</v>
       </c>
@@ -11777,7 +11797,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="28">
         <v>2015</v>
       </c>
@@ -11797,7 +11817,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="28">
         <v>2015</v>
       </c>
@@ -11817,7 +11837,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="28">
         <v>2015</v>
       </c>
@@ -11837,7 +11857,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="28">
         <v>2015</v>
       </c>
@@ -11857,7 +11877,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="28">
         <v>2015</v>
       </c>
@@ -11877,7 +11897,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="28">
         <v>2015</v>
       </c>
@@ -11897,7 +11917,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="28">
         <v>2015</v>
       </c>
@@ -11917,7 +11937,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="28">
         <v>2015</v>
       </c>
@@ -11940,7 +11960,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="28">
         <v>2015</v>
       </c>
@@ -11960,7 +11980,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="28">
         <v>2015</v>
       </c>
@@ -11980,7 +12000,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="28">
         <v>2015</v>
       </c>
@@ -12000,7 +12020,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="28">
         <v>2015</v>
       </c>
@@ -12020,7 +12040,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="28">
         <v>2015</v>
       </c>
@@ -12040,7 +12060,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="28">
         <v>2015</v>
       </c>
@@ -12060,7 +12080,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="28">
         <v>2015</v>
       </c>
@@ -12080,7 +12100,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="28">
         <v>2015</v>
       </c>
@@ -12100,7 +12120,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="28">
         <v>2015</v>
       </c>
@@ -12120,7 +12140,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="28">
         <v>2015</v>
       </c>
@@ -12140,7 +12160,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="28">
         <v>2015</v>
       </c>
@@ -12160,7 +12180,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="28">
         <v>2015</v>
       </c>
@@ -12180,7 +12200,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="28">
         <v>2015</v>
       </c>
@@ -12206,7 +12226,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="28">
         <v>2015</v>
       </c>
@@ -12232,7 +12252,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="28">
         <v>2015</v>
       </c>
@@ -12252,7 +12272,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="28">
         <v>2015</v>
       </c>
@@ -12278,7 +12298,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="28">
         <v>2015</v>
       </c>
@@ -12304,7 +12324,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="28">
         <v>2015</v>
       </c>
@@ -12324,7 +12344,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="28">
         <v>2015</v>
       </c>
@@ -12344,7 +12364,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="28">
         <v>2015</v>
       </c>
@@ -12367,7 +12387,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="28">
         <v>2015</v>
       </c>
@@ -12393,7 +12413,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="28">
         <v>2015</v>
       </c>
@@ -12413,7 +12433,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="28">
         <v>2015</v>
       </c>
@@ -12433,7 +12453,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="28">
         <v>2015</v>
       </c>
@@ -12453,7 +12473,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="28">
         <v>2015</v>
       </c>
@@ -12473,7 +12493,7 @@
         <v>42145</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="28">
         <v>2015</v>
       </c>
@@ -12493,7 +12513,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="28">
         <v>2015</v>
       </c>
@@ -12513,7 +12533,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="28">
         <v>2015</v>
       </c>
@@ -12533,7 +12553,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="28">
         <v>2015</v>
       </c>
@@ -12553,7 +12573,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="28">
         <v>2015</v>
       </c>
@@ -12573,7 +12593,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="28">
         <v>2015</v>
       </c>
@@ -12593,7 +12613,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="28">
         <v>2015</v>
       </c>
@@ -12619,7 +12639,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="28">
         <v>2015</v>
       </c>
@@ -12645,7 +12665,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="28">
         <v>2015</v>
       </c>
@@ -12671,7 +12691,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="28">
         <v>2015</v>
       </c>
@@ -12691,7 +12711,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="28">
         <v>2015</v>
       </c>
@@ -12711,7 +12731,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="28">
         <v>2015</v>
       </c>
@@ -12731,7 +12751,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="28">
         <v>2015</v>
       </c>
@@ -12751,7 +12771,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="28">
         <v>2015</v>
       </c>
@@ -12774,7 +12794,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="28">
         <v>2015</v>
       </c>
@@ -12794,7 +12814,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="28">
         <v>2015</v>
       </c>
@@ -12814,7 +12834,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="28">
         <v>2015</v>
       </c>
@@ -12834,7 +12854,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="28">
         <v>2015</v>
       </c>
@@ -12854,7 +12874,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" s="28">
         <v>2015</v>
       </c>
@@ -12880,7 +12900,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" s="28">
         <v>2015</v>
       </c>
@@ -12906,7 +12926,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" s="28">
         <v>2015</v>
       </c>
@@ -12932,7 +12952,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" s="28">
         <v>2015</v>
       </c>
@@ -12958,7 +12978,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" s="28">
         <v>2015</v>
       </c>
@@ -12978,7 +12998,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" s="28">
         <v>2015</v>
       </c>
@@ -13004,7 +13024,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" s="28">
         <v>2015</v>
       </c>
@@ -13030,7 +13050,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" s="28">
         <v>2015</v>
       </c>
@@ -13056,7 +13076,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" s="28">
         <v>2015</v>
       </c>
@@ -13082,7 +13102,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" s="28">
         <v>2015</v>
       </c>
@@ -13108,7 +13128,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" s="28">
         <v>2015</v>
       </c>
@@ -13134,7 +13154,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" s="28">
         <v>2015</v>
       </c>
@@ -13160,7 +13180,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" s="28">
         <v>2015</v>
       </c>
@@ -13186,7 +13206,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" s="28">
         <v>2015</v>
       </c>
@@ -13212,7 +13232,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" s="28">
         <v>2015</v>
       </c>
@@ -13235,7 +13255,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" s="28">
         <v>2015</v>
       </c>
@@ -13261,7 +13281,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="28">
         <v>2015</v>
       </c>
@@ -13287,7 +13307,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" s="28">
         <v>2015</v>
       </c>
@@ -13313,7 +13333,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" s="28">
         <v>2015</v>
       </c>
@@ -13339,7 +13359,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" s="28">
         <v>2015</v>
       </c>
@@ -13365,7 +13385,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" s="28">
         <v>2015</v>
       </c>
@@ -13385,7 +13405,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" s="28">
         <v>2015</v>
       </c>
@@ -13411,7 +13431,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" s="28">
         <v>2015</v>
       </c>
@@ -13437,7 +13457,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" s="28">
         <v>2015</v>
       </c>
@@ -13463,7 +13483,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" s="28">
         <v>2015</v>
       </c>
@@ -13489,7 +13509,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" s="28">
         <v>2015</v>
       </c>
@@ -13515,7 +13535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" s="28">
         <v>2015</v>
       </c>
@@ -13535,7 +13555,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" s="28">
         <v>2015</v>
       </c>
@@ -13561,7 +13581,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" s="28">
         <v>2015</v>
       </c>
@@ -13581,7 +13601,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" s="28">
         <v>2015</v>
       </c>
@@ -13607,7 +13627,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" s="28">
         <v>2015</v>
       </c>
@@ -13627,7 +13647,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" s="28">
         <v>2015</v>
       </c>
@@ -13653,7 +13673,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" s="28">
         <v>2015</v>
       </c>
@@ -13679,7 +13699,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="28">
         <v>2015</v>
       </c>
@@ -13699,7 +13719,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="28">
         <v>2015</v>
       </c>
@@ -13725,7 +13745,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="28">
         <v>2015</v>
       </c>
@@ -13745,7 +13765,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" s="28">
         <v>2015</v>
       </c>
@@ -13765,7 +13785,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" s="28">
         <v>2015</v>
       </c>
@@ -13785,7 +13805,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" s="28">
         <v>2015</v>
       </c>
@@ -13805,7 +13825,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" s="28">
         <v>2015</v>
       </c>
@@ -13825,7 +13845,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" s="28">
         <v>2015</v>
       </c>
@@ -13845,7 +13865,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" s="28">
         <v>2015</v>
       </c>
@@ -13865,7 +13885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" s="28">
         <v>2015</v>
       </c>
@@ -13885,7 +13905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" s="28">
         <v>2015</v>
       </c>
@@ -13905,7 +13925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" s="28">
         <v>2015</v>
       </c>
@@ -13925,7 +13945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" s="28">
         <v>2015</v>
       </c>
@@ -13945,7 +13965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" s="28">
         <v>2015</v>
       </c>
@@ -13965,7 +13985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" s="28">
         <v>2015</v>
       </c>
@@ -13985,7 +14005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" s="28">
         <v>2015</v>
       </c>
@@ -14005,7 +14025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" s="28">
         <v>2015</v>
       </c>
@@ -14025,7 +14045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" s="28">
         <v>2015</v>
       </c>
@@ -14045,7 +14065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" s="28">
         <v>2015</v>
       </c>
@@ -14065,7 +14085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" s="28">
         <v>2015</v>
       </c>
@@ -14085,7 +14105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" s="28">
         <v>2015</v>
       </c>
@@ -14121,16 +14141,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="69" t="s">
         <v>318</v>
       </c>
@@ -14141,22 +14161,22 @@
       <c r="F2" s="68"/>
       <c r="G2" s="68"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="69"/>
-      <c r="B3" s="96">
+      <c r="B3" s="97">
         <v>2013</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98">
+      <c r="C3" s="98"/>
+      <c r="D3" s="99">
         <v>2014</v>
       </c>
-      <c r="E3" s="99"/>
-      <c r="F3" s="100">
-        <v>2015</v>
-      </c>
-      <c r="G3" s="101"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="E3" s="100"/>
+      <c r="F3" s="101">
+        <v>2015</v>
+      </c>
+      <c r="G3" s="102"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="71" t="s">
         <v>319</v>
       </c>
@@ -14179,7 +14199,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="70" t="s">
         <v>322</v>
       </c>
@@ -14212,7 +14232,7 @@
       </c>
       <c r="M5" s="85"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="70" t="s">
         <v>323</v>
       </c>
@@ -14245,7 +14265,7 @@
       </c>
       <c r="M6" s="85"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="70" t="s">
         <v>324</v>
       </c>
@@ -14278,7 +14298,7 @@
       </c>
       <c r="M7" s="85"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="70" t="s">
         <v>325</v>
       </c>
@@ -14311,7 +14331,7 @@
       </c>
       <c r="M8" s="85"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="70" t="s">
         <v>326</v>
       </c>
@@ -14344,7 +14364,7 @@
       </c>
       <c r="M9" s="85"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="70" t="s">
         <v>327</v>
       </c>
@@ -14377,7 +14397,7 @@
       </c>
       <c r="M10" s="85"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="70" t="s">
         <v>328</v>
       </c>
@@ -14410,7 +14430,7 @@
       </c>
       <c r="M11" s="85"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="70" t="s">
         <v>329</v>
       </c>
@@ -14443,7 +14463,7 @@
       </c>
       <c r="M12" s="85"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="70" t="s">
         <v>330</v>
       </c>
@@ -14476,7 +14496,7 @@
       </c>
       <c r="M13" s="85"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J14" s="86" t="s">
         <v>324</v>
       </c>
@@ -14486,7 +14506,7 @@
       </c>
       <c r="M14" s="85"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J15" s="86" t="s">
         <v>33</v>
       </c>
@@ -14496,7 +14516,7 @@
       </c>
       <c r="M15" s="85"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J16" s="86" t="s">
         <v>28</v>
       </c>
@@ -14506,7 +14526,7 @@
       </c>
       <c r="M16" s="85"/>
     </row>
-    <row r="17" spans="10:13">
+    <row r="17" spans="10:13" x14ac:dyDescent="0.35">
       <c r="J17" s="86" t="s">
         <v>325</v>
       </c>
@@ -14516,7 +14536,7 @@
       </c>
       <c r="M17" s="85"/>
     </row>
-    <row r="18" spans="10:13">
+    <row r="18" spans="10:13" x14ac:dyDescent="0.35">
       <c r="J18" s="86" t="s">
         <v>331</v>
       </c>
@@ -14526,7 +14546,7 @@
       </c>
       <c r="M18" s="85"/>
     </row>
-    <row r="19" spans="10:13">
+    <row r="19" spans="10:13" x14ac:dyDescent="0.35">
       <c r="J19" s="86" t="s">
         <v>332</v>
       </c>
@@ -14536,7 +14556,7 @@
       </c>
       <c r="M19" s="85"/>
     </row>
-    <row r="20" spans="10:13">
+    <row r="20" spans="10:13" x14ac:dyDescent="0.35">
       <c r="J20" s="86" t="s">
         <v>328</v>
       </c>
@@ -14546,7 +14566,7 @@
       </c>
       <c r="M20" s="85"/>
     </row>
-    <row r="21" spans="10:13">
+    <row r="21" spans="10:13" x14ac:dyDescent="0.35">
       <c r="J21" s="86" t="s">
         <v>330</v>
       </c>
@@ -14556,7 +14576,7 @@
       </c>
       <c r="M21" s="85"/>
     </row>
-    <row r="22" spans="10:13">
+    <row r="22" spans="10:13" x14ac:dyDescent="0.35">
       <c r="J22" s="86" t="s">
         <v>34</v>
       </c>
@@ -14566,7 +14586,7 @@
       </c>
       <c r="M22" s="85"/>
     </row>
-    <row r="23" spans="10:13">
+    <row r="23" spans="10:13" x14ac:dyDescent="0.35">
       <c r="J23" s="86" t="s">
         <v>38</v>
       </c>
@@ -14592,25 +14612,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6328125" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
@@ -14648,7 +14668,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -14674,7 +14694,7 @@
         <v>403998</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -14700,7 +14720,7 @@
         <v>78797</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -14726,7 +14746,7 @@
         <v>229542</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -14752,7 +14772,7 @@
         <v>979010</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -14778,7 +14798,7 @@
         <v>114636</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -14804,7 +14824,7 @@
         <v>22391</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -14830,7 +14850,7 @@
         <v>241155</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -14856,7 +14876,7 @@
         <v>259378</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -14882,7 +14902,7 @@
         <v>241992</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -14908,7 +14928,7 @@
         <v>43167</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -14934,7 +14954,7 @@
         <v>354531</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -14960,7 +14980,7 @@
         <v>271495</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -14986,7 +15006,7 @@
         <v>797412</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -15012,7 +15032,7 @@
         <v>633704</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -15049,23 +15069,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="85" t="s">
         <v>343</v>
       </c>
@@ -15074,7 +15094,7 @@
       </c>
       <c r="N1" s="9"/>
     </row>
-    <row r="2" spans="1:20" s="2" customFormat="1">
+    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="85" t="s">
         <v>14</v>
       </c>
@@ -15100,7 +15120,7 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="85" t="s">
         <v>27</v>
       </c>
@@ -15126,7 +15146,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="85" t="s">
         <v>30</v>
       </c>
@@ -15152,7 +15172,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="85" t="s">
         <v>36</v>
       </c>
@@ -15178,7 +15198,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="85" t="s">
         <v>40</v>
       </c>
@@ -15204,7 +15224,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -15226,7 +15246,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -15248,7 +15268,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -15270,7 +15290,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -15292,7 +15312,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -15314,7 +15334,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -15336,7 +15356,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -15358,7 +15378,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -15380,7 +15400,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -15402,7 +15422,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -15424,7 +15444,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -15446,7 +15466,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -15468,7 +15488,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -15489,7 +15509,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -15510,7 +15530,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -15531,7 +15551,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -15552,7 +15572,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -15573,7 +15593,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -15594,7 +15614,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -15615,7 +15635,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -15636,7 +15656,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -15657,7 +15677,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -15678,7 +15698,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -15699,7 +15719,7 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -15720,7 +15740,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -15741,7 +15761,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -15762,7 +15782,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -15783,7 +15803,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -15804,7 +15824,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -15825,7 +15845,7 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -15846,7 +15866,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -15867,7 +15887,7 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -15888,7 +15908,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -15909,7 +15929,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -15930,7 +15950,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -15951,7 +15971,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -15972,7 +15992,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -15993,7 +16013,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -16014,7 +16034,7 @@
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -16035,7 +16055,7 @@
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -16056,7 +16076,7 @@
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -16077,7 +16097,7 @@
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -16098,7 +16118,7 @@
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -16119,7 +16139,7 @@
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -16140,7 +16160,7 @@
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -16161,7 +16181,7 @@
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -16182,7 +16202,7 @@
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -16203,7 +16223,7 @@
       <c r="S53" s="6"/>
       <c r="T53" s="6"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -16224,7 +16244,7 @@
       <c r="S54" s="6"/>
       <c r="T54" s="6"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -16245,7 +16265,7 @@
       <c r="S55" s="6"/>
       <c r="T55" s="6"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -16266,7 +16286,7 @@
       <c r="S56" s="6"/>
       <c r="T56" s="6"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -16287,15 +16307,15 @@
       <c r="S57" s="6"/>
       <c r="T57" s="6"/>
     </row>
-    <row r="58" spans="1:20">
-      <c r="M58" s="102"/>
-      <c r="N58" s="102"/>
-      <c r="O58" s="102"/>
-      <c r="P58" s="102"/>
-      <c r="Q58" s="102"/>
-      <c r="R58" s="102"/>
-      <c r="S58" s="102"/>
-      <c r="T58" s="102"/>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="M58" s="103"/>
+      <c r="N58" s="103"/>
+      <c r="O58" s="103"/>
+      <c r="P58" s="103"/>
+      <c r="Q58" s="103"/>
+      <c r="R58" s="103"/>
+      <c r="S58" s="103"/>
+      <c r="T58" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16311,24 +16331,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H265"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="28"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="28"/>
+    <col min="4" max="4" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="29" customFormat="1">
+    <row r="1" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="32"/>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -16338,1157 +16358,1157 @@
       <c r="G1" s="33"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E2" s="30"/>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E3" s="30"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
       <c r="G6" s="30"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="5:7">
+    <row r="17" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="5:7">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="5:7">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
     </row>
-    <row r="20" spans="5:7">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" spans="5:7">
+    <row r="21" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
     </row>
-    <row r="22" spans="5:7">
+    <row r="22" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="5:7">
+    <row r="23" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="5:7">
+    <row r="24" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
     </row>
-    <row r="25" spans="5:7">
+    <row r="25" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
     </row>
-    <row r="26" spans="5:7">
+    <row r="26" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
     </row>
-    <row r="27" spans="5:7">
+    <row r="27" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
     </row>
-    <row r="28" spans="5:7">
+    <row r="28" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
     </row>
-    <row r="29" spans="5:7">
+    <row r="29" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
     </row>
-    <row r="30" spans="5:7">
+    <row r="30" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="5:7">
+    <row r="31" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
     </row>
-    <row r="32" spans="5:7">
+    <row r="32" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
       <c r="G32" s="30"/>
     </row>
-    <row r="33" spans="5:7">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
       <c r="G33" s="30"/>
     </row>
-    <row r="34" spans="5:7">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
       <c r="G34" s="30"/>
     </row>
-    <row r="35" spans="5:7">
+    <row r="35" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
     </row>
-    <row r="38" spans="5:7">
+    <row r="38" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
       <c r="G38" s="30"/>
     </row>
-    <row r="39" spans="5:7">
+    <row r="39" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E39" s="30"/>
       <c r="F39" s="30"/>
     </row>
-    <row r="40" spans="5:7">
+    <row r="40" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E40" s="30"/>
       <c r="F40" s="30"/>
       <c r="G40" s="30"/>
     </row>
-    <row r="41" spans="5:7">
+    <row r="41" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E41" s="30"/>
       <c r="F41" s="30"/>
       <c r="G41" s="30"/>
     </row>
-    <row r="42" spans="5:7">
+    <row r="42" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E42" s="30"/>
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
     </row>
-    <row r="43" spans="5:7">
+    <row r="43" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E43" s="30"/>
       <c r="F43" s="30"/>
     </row>
-    <row r="44" spans="5:7">
+    <row r="44" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E44" s="30"/>
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
     </row>
-    <row r="45" spans="5:7">
+    <row r="45" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E45" s="30"/>
       <c r="F45" s="30"/>
       <c r="G45" s="30"/>
     </row>
-    <row r="46" spans="5:7">
+    <row r="46" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
     </row>
-    <row r="47" spans="5:7">
+    <row r="47" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E47" s="30"/>
       <c r="F47" s="30"/>
       <c r="G47" s="30"/>
     </row>
-    <row r="48" spans="5:7">
+    <row r="48" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E48" s="30"/>
       <c r="F48" s="30"/>
     </row>
-    <row r="49" spans="5:7">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E49" s="30"/>
       <c r="F49" s="30"/>
       <c r="G49" s="30"/>
     </row>
-    <row r="50" spans="5:7">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E50" s="30"/>
       <c r="F50" s="30"/>
     </row>
-    <row r="51" spans="5:7">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E51" s="30"/>
       <c r="F51" s="30"/>
     </row>
-    <row r="52" spans="5:7">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E52" s="30"/>
       <c r="F52" s="30"/>
       <c r="G52" s="30"/>
     </row>
-    <row r="53" spans="5:7">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E53" s="30"/>
       <c r="F53" s="30"/>
       <c r="G53" s="30"/>
     </row>
-    <row r="54" spans="5:7">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E54" s="30"/>
       <c r="F54" s="30"/>
       <c r="G54" s="30"/>
     </row>
-    <row r="55" spans="5:7">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E55" s="30"/>
       <c r="F55" s="30"/>
       <c r="G55" s="30"/>
     </row>
-    <row r="56" spans="5:7">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E56" s="30"/>
       <c r="F56" s="30"/>
     </row>
-    <row r="57" spans="5:7">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E57" s="30"/>
       <c r="F57" s="30"/>
       <c r="G57" s="30"/>
     </row>
-    <row r="58" spans="5:7">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E58" s="30"/>
       <c r="F58" s="30"/>
       <c r="G58" s="30"/>
     </row>
-    <row r="59" spans="5:7">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E59" s="30"/>
       <c r="G59" s="30"/>
     </row>
-    <row r="60" spans="5:7">
+    <row r="60" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E60" s="30"/>
       <c r="F60" s="30"/>
       <c r="G60" s="30"/>
     </row>
-    <row r="61" spans="5:7">
+    <row r="61" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E61" s="30"/>
       <c r="F61" s="30"/>
       <c r="G61" s="30"/>
     </row>
-    <row r="62" spans="5:7">
+    <row r="62" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E62" s="30"/>
       <c r="F62" s="30"/>
       <c r="G62" s="30"/>
     </row>
-    <row r="63" spans="5:7">
+    <row r="63" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E63" s="30"/>
       <c r="F63" s="30"/>
       <c r="G63" s="30"/>
     </row>
-    <row r="64" spans="5:7">
+    <row r="64" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E64" s="30"/>
       <c r="F64" s="30"/>
       <c r="G64" s="30"/>
     </row>
-    <row r="65" spans="5:7">
+    <row r="65" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E65" s="30"/>
       <c r="F65" s="30"/>
     </row>
-    <row r="66" spans="5:7">
+    <row r="66" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E66" s="30"/>
       <c r="F66" s="30"/>
     </row>
-    <row r="67" spans="5:7">
+    <row r="67" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E67" s="30"/>
       <c r="F67" s="30"/>
       <c r="G67" s="30"/>
     </row>
-    <row r="68" spans="5:7">
+    <row r="68" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E68" s="30"/>
       <c r="F68" s="30"/>
     </row>
-    <row r="69" spans="5:7">
+    <row r="69" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E69" s="30"/>
       <c r="F69" s="30"/>
     </row>
-    <row r="70" spans="5:7">
+    <row r="70" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E70" s="30"/>
       <c r="F70" s="30"/>
     </row>
-    <row r="71" spans="5:7">
+    <row r="71" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E71" s="30"/>
       <c r="F71" s="30"/>
     </row>
-    <row r="72" spans="5:7">
+    <row r="72" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E72" s="30"/>
       <c r="F72" s="30"/>
     </row>
-    <row r="73" spans="5:7">
+    <row r="73" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E73" s="30"/>
       <c r="F73" s="30"/>
     </row>
-    <row r="74" spans="5:7">
+    <row r="74" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E74" s="30"/>
       <c r="F74" s="30"/>
     </row>
-    <row r="75" spans="5:7">
+    <row r="75" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E75" s="30"/>
       <c r="F75" s="30"/>
       <c r="G75" s="30"/>
     </row>
-    <row r="76" spans="5:7">
+    <row r="76" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E76" s="30"/>
       <c r="F76" s="30"/>
     </row>
-    <row r="77" spans="5:7">
+    <row r="77" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E77" s="30"/>
       <c r="F77" s="30"/>
     </row>
-    <row r="78" spans="5:7">
+    <row r="78" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E78" s="30"/>
       <c r="F78" s="30"/>
     </row>
-    <row r="79" spans="5:7">
+    <row r="79" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E79" s="30"/>
       <c r="F79" s="30"/>
     </row>
-    <row r="80" spans="5:7">
+    <row r="80" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E80" s="30"/>
       <c r="F80" s="30"/>
     </row>
-    <row r="81" spans="5:7">
+    <row r="81" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E81" s="30"/>
       <c r="F81" s="30"/>
     </row>
-    <row r="82" spans="5:7">
+    <row r="82" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E82" s="30"/>
       <c r="F82" s="30"/>
       <c r="G82" s="30"/>
     </row>
-    <row r="83" spans="5:7">
+    <row r="83" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E83" s="30"/>
       <c r="F83" s="30"/>
     </row>
-    <row r="84" spans="5:7">
+    <row r="84" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E84" s="30"/>
       <c r="F84" s="30"/>
     </row>
-    <row r="85" spans="5:7">
+    <row r="85" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E85" s="30"/>
       <c r="F85" s="30"/>
       <c r="G85" s="30"/>
     </row>
-    <row r="86" spans="5:7">
+    <row r="86" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E86" s="30"/>
       <c r="F86" s="30"/>
       <c r="G86" s="30"/>
     </row>
-    <row r="87" spans="5:7">
+    <row r="87" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E87" s="30"/>
       <c r="F87" s="30"/>
       <c r="G87" s="30"/>
     </row>
-    <row r="88" spans="5:7">
+    <row r="88" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E88" s="30"/>
       <c r="F88" s="30"/>
       <c r="G88" s="30"/>
     </row>
-    <row r="89" spans="5:7">
+    <row r="89" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E89" s="30"/>
       <c r="F89" s="30"/>
     </row>
-    <row r="90" spans="5:7">
+    <row r="90" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E90" s="30"/>
       <c r="F90" s="30"/>
       <c r="G90" s="30"/>
     </row>
-    <row r="91" spans="5:7">
+    <row r="91" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E91" s="30"/>
       <c r="F91" s="30"/>
       <c r="G91" s="30"/>
     </row>
-    <row r="92" spans="5:7">
+    <row r="92" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E92" s="30"/>
       <c r="F92" s="30"/>
     </row>
-    <row r="93" spans="5:7">
+    <row r="93" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E93" s="30"/>
       <c r="F93" s="30"/>
       <c r="G93" s="30"/>
     </row>
-    <row r="94" spans="5:7">
+    <row r="94" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E94" s="30"/>
       <c r="F94" s="30"/>
       <c r="G94" s="30"/>
     </row>
-    <row r="95" spans="5:7">
+    <row r="95" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E95" s="30"/>
       <c r="F95" s="30"/>
     </row>
-    <row r="96" spans="5:7">
+    <row r="96" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E96" s="30"/>
       <c r="F96" s="30"/>
     </row>
-    <row r="97" spans="5:7">
+    <row r="97" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E97" s="30"/>
       <c r="F97" s="30"/>
     </row>
-    <row r="98" spans="5:7">
+    <row r="98" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E98" s="30"/>
       <c r="F98" s="30"/>
     </row>
-    <row r="99" spans="5:7">
+    <row r="99" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E99" s="30"/>
       <c r="F99" s="30"/>
       <c r="G99" s="30"/>
     </row>
-    <row r="100" spans="5:7">
+    <row r="100" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E100" s="30"/>
       <c r="F100" s="30"/>
     </row>
-    <row r="101" spans="5:7">
+    <row r="101" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E101" s="30"/>
       <c r="F101" s="30"/>
     </row>
-    <row r="102" spans="5:7">
+    <row r="102" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E102" s="30"/>
       <c r="F102" s="30"/>
     </row>
-    <row r="103" spans="5:7">
+    <row r="103" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E103" s="30"/>
       <c r="F103" s="30"/>
       <c r="G103" s="30"/>
     </row>
-    <row r="104" spans="5:7">
+    <row r="104" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E104" s="30"/>
       <c r="F104" s="30"/>
     </row>
-    <row r="105" spans="5:7">
+    <row r="105" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E105" s="30"/>
       <c r="F105" s="30"/>
     </row>
-    <row r="106" spans="5:7">
+    <row r="106" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E106" s="30"/>
       <c r="F106" s="30"/>
     </row>
-    <row r="107" spans="5:7">
+    <row r="107" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E107" s="30"/>
       <c r="F107" s="30"/>
     </row>
-    <row r="108" spans="5:7">
+    <row r="108" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E108" s="30"/>
       <c r="F108" s="30"/>
     </row>
-    <row r="109" spans="5:7">
+    <row r="109" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E109" s="30"/>
       <c r="F109" s="30"/>
     </row>
-    <row r="110" spans="5:7">
+    <row r="110" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E110" s="30"/>
       <c r="F110" s="30"/>
       <c r="G110" s="30"/>
     </row>
-    <row r="111" spans="5:7">
+    <row r="111" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E111" s="30"/>
       <c r="F111" s="30"/>
     </row>
-    <row r="112" spans="5:7">
+    <row r="112" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E112" s="30"/>
       <c r="F112" s="30"/>
       <c r="G112" s="30"/>
     </row>
-    <row r="113" spans="5:7">
+    <row r="113" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E113" s="30"/>
       <c r="F113" s="30"/>
       <c r="G113" s="30"/>
     </row>
-    <row r="114" spans="5:7">
+    <row r="114" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E114" s="30"/>
       <c r="F114" s="30"/>
       <c r="G114" s="30"/>
     </row>
-    <row r="115" spans="5:7">
+    <row r="115" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E115" s="30"/>
       <c r="F115" s="30"/>
     </row>
-    <row r="116" spans="5:7">
+    <row r="116" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E116" s="30"/>
       <c r="F116" s="30"/>
       <c r="G116" s="30"/>
     </row>
-    <row r="117" spans="5:7">
+    <row r="117" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E117" s="30"/>
       <c r="F117" s="30"/>
       <c r="G117" s="30"/>
     </row>
-    <row r="118" spans="5:7">
+    <row r="118" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E118" s="30"/>
       <c r="F118" s="30"/>
     </row>
-    <row r="119" spans="5:7">
+    <row r="119" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E119" s="30"/>
       <c r="F119" s="30"/>
       <c r="G119" s="30"/>
     </row>
-    <row r="120" spans="5:7">
+    <row r="120" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E120" s="30"/>
       <c r="F120" s="30"/>
       <c r="G120" s="30"/>
     </row>
-    <row r="121" spans="5:7">
+    <row r="121" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E121" s="30"/>
       <c r="F121" s="30"/>
       <c r="G121" s="30"/>
     </row>
-    <row r="122" spans="5:7">
+    <row r="122" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E122" s="30"/>
       <c r="F122" s="30"/>
     </row>
-    <row r="123" spans="5:7">
+    <row r="123" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E123" s="30"/>
       <c r="F123" s="30"/>
       <c r="G123" s="30"/>
     </row>
-    <row r="124" spans="5:7">
+    <row r="124" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E124" s="30"/>
       <c r="F124" s="30"/>
       <c r="G124" s="30"/>
     </row>
-    <row r="125" spans="5:7">
+    <row r="125" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E125" s="30"/>
       <c r="F125" s="30"/>
     </row>
-    <row r="126" spans="5:7">
+    <row r="126" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E126" s="30"/>
       <c r="F126" s="30"/>
     </row>
-    <row r="127" spans="5:7">
+    <row r="127" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E127" s="30"/>
       <c r="F127" s="30"/>
       <c r="G127" s="30"/>
     </row>
-    <row r="128" spans="5:7">
+    <row r="128" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E128" s="30"/>
       <c r="F128" s="30"/>
     </row>
-    <row r="129" spans="5:7">
+    <row r="129" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E129" s="30"/>
       <c r="F129" s="30"/>
     </row>
-    <row r="130" spans="5:7">
+    <row r="130" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E130" s="30"/>
       <c r="F130" s="30"/>
       <c r="G130" s="30"/>
     </row>
-    <row r="131" spans="5:7">
+    <row r="131" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E131" s="30"/>
       <c r="F131" s="30"/>
       <c r="G131" s="30"/>
     </row>
-    <row r="132" spans="5:7">
+    <row r="132" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E132" s="30"/>
       <c r="F132" s="30"/>
       <c r="G132" s="30"/>
     </row>
-    <row r="133" spans="5:7">
+    <row r="133" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E133" s="30"/>
       <c r="F133" s="30"/>
       <c r="G133" s="30"/>
     </row>
-    <row r="134" spans="5:7">
+    <row r="134" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E134" s="30"/>
       <c r="F134" s="30"/>
     </row>
-    <row r="135" spans="5:7">
+    <row r="135" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E135" s="30"/>
       <c r="F135" s="30"/>
     </row>
-    <row r="136" spans="5:7">
+    <row r="136" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E136" s="30"/>
       <c r="F136" s="30"/>
     </row>
-    <row r="137" spans="5:7">
+    <row r="137" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E137" s="30"/>
       <c r="F137" s="30"/>
     </row>
-    <row r="138" spans="5:7">
+    <row r="138" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E138" s="30"/>
       <c r="F138" s="30"/>
     </row>
-    <row r="139" spans="5:7">
+    <row r="139" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E139" s="30"/>
       <c r="F139" s="30"/>
     </row>
-    <row r="140" spans="5:7">
+    <row r="140" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E140" s="30"/>
       <c r="F140" s="30"/>
     </row>
-    <row r="141" spans="5:7">
+    <row r="141" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E141" s="30"/>
       <c r="F141" s="30"/>
     </row>
-    <row r="142" spans="5:7">
+    <row r="142" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E142" s="30"/>
       <c r="F142" s="30"/>
     </row>
-    <row r="143" spans="5:7">
+    <row r="143" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E143" s="30"/>
       <c r="F143" s="30"/>
     </row>
-    <row r="144" spans="5:7">
+    <row r="144" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E144" s="30"/>
       <c r="F144" s="30"/>
     </row>
-    <row r="145" spans="5:7">
+    <row r="145" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E145" s="30"/>
       <c r="F145" s="30"/>
     </row>
-    <row r="146" spans="5:7">
+    <row r="146" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E146" s="30"/>
       <c r="F146" s="30"/>
     </row>
-    <row r="147" spans="5:7">
+    <row r="147" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E147" s="30"/>
       <c r="F147" s="30"/>
     </row>
-    <row r="148" spans="5:7">
+    <row r="148" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E148" s="30"/>
       <c r="F148" s="30"/>
     </row>
-    <row r="149" spans="5:7">
+    <row r="149" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E149" s="30"/>
       <c r="F149" s="30"/>
     </row>
-    <row r="150" spans="5:7">
+    <row r="150" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E150" s="30"/>
       <c r="F150" s="30"/>
     </row>
-    <row r="151" spans="5:7">
+    <row r="151" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E151" s="30"/>
       <c r="F151" s="30"/>
       <c r="G151" s="30"/>
     </row>
-    <row r="152" spans="5:7">
+    <row r="152" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E152" s="30"/>
       <c r="F152" s="30"/>
     </row>
-    <row r="153" spans="5:7">
+    <row r="153" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E153" s="30"/>
       <c r="F153" s="30"/>
     </row>
-    <row r="154" spans="5:7">
+    <row r="154" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E154" s="30"/>
       <c r="F154" s="30"/>
       <c r="G154" s="30"/>
     </row>
-    <row r="155" spans="5:7">
+    <row r="155" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E155" s="30"/>
       <c r="F155" s="30"/>
     </row>
-    <row r="156" spans="5:7">
+    <row r="156" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E156" s="30"/>
       <c r="F156" s="30"/>
     </row>
-    <row r="157" spans="5:7">
+    <row r="157" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E157" s="30"/>
       <c r="F157" s="30"/>
     </row>
-    <row r="158" spans="5:7">
+    <row r="158" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E158" s="30"/>
       <c r="F158" s="30"/>
     </row>
-    <row r="159" spans="5:7">
+    <row r="159" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E159" s="30"/>
       <c r="F159" s="30"/>
     </row>
-    <row r="160" spans="5:7">
+    <row r="160" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E160" s="30"/>
       <c r="F160" s="30"/>
     </row>
-    <row r="161" spans="5:6">
+    <row r="161" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E161" s="30"/>
       <c r="F161" s="30"/>
     </row>
-    <row r="162" spans="5:6">
+    <row r="162" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E162" s="30"/>
       <c r="F162" s="30"/>
     </row>
-    <row r="163" spans="5:6">
+    <row r="163" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E163" s="30"/>
       <c r="F163" s="30"/>
     </row>
-    <row r="164" spans="5:6">
+    <row r="164" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E164" s="30"/>
       <c r="F164" s="30"/>
     </row>
-    <row r="165" spans="5:6">
+    <row r="165" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E165" s="30"/>
       <c r="F165" s="30"/>
     </row>
-    <row r="166" spans="5:6">
+    <row r="166" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E166" s="30"/>
       <c r="F166" s="30"/>
     </row>
-    <row r="167" spans="5:6">
+    <row r="167" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E167" s="30"/>
       <c r="F167" s="30"/>
     </row>
-    <row r="168" spans="5:6">
+    <row r="168" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E168" s="30"/>
       <c r="F168" s="30"/>
     </row>
-    <row r="169" spans="5:6">
+    <row r="169" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E169" s="30"/>
       <c r="F169" s="30"/>
     </row>
-    <row r="170" spans="5:6">
+    <row r="170" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E170" s="30"/>
       <c r="F170" s="30"/>
     </row>
-    <row r="171" spans="5:6">
+    <row r="171" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E171" s="30"/>
       <c r="F171" s="30"/>
     </row>
-    <row r="172" spans="5:6">
+    <row r="172" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E172" s="30"/>
       <c r="F172" s="30"/>
     </row>
-    <row r="173" spans="5:6">
+    <row r="173" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E173" s="30"/>
       <c r="F173" s="30"/>
     </row>
-    <row r="174" spans="5:6">
+    <row r="174" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E174" s="30"/>
       <c r="F174" s="30"/>
     </row>
-    <row r="175" spans="5:6">
+    <row r="175" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E175" s="30"/>
       <c r="F175" s="30"/>
     </row>
-    <row r="176" spans="5:6">
+    <row r="176" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E176" s="30"/>
       <c r="F176" s="30"/>
     </row>
-    <row r="177" spans="5:7">
+    <row r="177" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E177" s="30"/>
       <c r="F177" s="30"/>
     </row>
-    <row r="178" spans="5:7">
+    <row r="178" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E178" s="30"/>
       <c r="F178" s="30"/>
       <c r="G178" s="30"/>
     </row>
-    <row r="179" spans="5:7">
+    <row r="179" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E179" s="30"/>
       <c r="F179" s="30"/>
       <c r="G179" s="30"/>
     </row>
-    <row r="180" spans="5:7">
+    <row r="180" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E180" s="30"/>
       <c r="F180" s="30"/>
     </row>
-    <row r="181" spans="5:7">
+    <row r="181" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E181" s="30"/>
       <c r="F181" s="30"/>
       <c r="G181" s="30"/>
     </row>
-    <row r="182" spans="5:7">
+    <row r="182" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E182" s="30"/>
       <c r="F182" s="30"/>
       <c r="G182" s="30"/>
     </row>
-    <row r="183" spans="5:7">
+    <row r="183" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E183" s="30"/>
       <c r="F183" s="30"/>
     </row>
-    <row r="184" spans="5:7">
+    <row r="184" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E184" s="30"/>
       <c r="F184" s="30"/>
     </row>
-    <row r="185" spans="5:7">
+    <row r="185" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E185" s="30"/>
       <c r="F185" s="30"/>
     </row>
-    <row r="186" spans="5:7">
+    <row r="186" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E186" s="30"/>
       <c r="F186" s="30"/>
       <c r="G186" s="30"/>
     </row>
-    <row r="187" spans="5:7">
+    <row r="187" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E187" s="30"/>
       <c r="F187" s="30"/>
     </row>
-    <row r="188" spans="5:7">
+    <row r="188" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E188" s="30"/>
       <c r="F188" s="30"/>
     </row>
-    <row r="189" spans="5:7">
+    <row r="189" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E189" s="30"/>
       <c r="F189" s="30"/>
     </row>
-    <row r="190" spans="5:7">
+    <row r="190" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E190" s="30"/>
       <c r="F190" s="30"/>
     </row>
-    <row r="191" spans="5:7">
+    <row r="191" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E191" s="30"/>
       <c r="F191" s="30"/>
     </row>
-    <row r="192" spans="5:7">
+    <row r="192" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E192" s="30"/>
       <c r="F192" s="30"/>
     </row>
-    <row r="193" spans="5:7">
+    <row r="193" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E193" s="30"/>
       <c r="F193" s="30"/>
     </row>
-    <row r="194" spans="5:7">
+    <row r="194" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E194" s="30"/>
       <c r="F194" s="30"/>
     </row>
-    <row r="195" spans="5:7">
+    <row r="195" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E195" s="30"/>
       <c r="F195" s="30"/>
     </row>
-    <row r="196" spans="5:7">
+    <row r="196" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E196" s="30"/>
       <c r="F196" s="30"/>
     </row>
-    <row r="197" spans="5:7">
+    <row r="197" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E197" s="30"/>
       <c r="F197" s="30"/>
       <c r="G197" s="30"/>
     </row>
-    <row r="198" spans="5:7">
+    <row r="198" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E198" s="30"/>
       <c r="F198" s="30"/>
       <c r="G198" s="30"/>
     </row>
-    <row r="199" spans="5:7">
+    <row r="199" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E199" s="30"/>
       <c r="F199" s="30"/>
       <c r="G199" s="30"/>
     </row>
-    <row r="200" spans="5:7">
+    <row r="200" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E200" s="30"/>
       <c r="F200" s="30"/>
     </row>
-    <row r="201" spans="5:7">
+    <row r="201" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E201" s="30"/>
       <c r="F201" s="30"/>
     </row>
-    <row r="202" spans="5:7">
+    <row r="202" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E202" s="30"/>
       <c r="F202" s="30"/>
     </row>
-    <row r="203" spans="5:7">
+    <row r="203" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E203" s="30"/>
       <c r="F203" s="30"/>
     </row>
-    <row r="204" spans="5:7">
+    <row r="204" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E204" s="30"/>
       <c r="F204" s="30"/>
     </row>
-    <row r="205" spans="5:7">
+    <row r="205" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E205" s="30"/>
       <c r="F205" s="30"/>
     </row>
-    <row r="206" spans="5:7">
+    <row r="206" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E206" s="30"/>
       <c r="F206" s="30"/>
     </row>
-    <row r="207" spans="5:7">
+    <row r="207" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E207" s="30"/>
       <c r="F207" s="30"/>
     </row>
-    <row r="208" spans="5:7">
+    <row r="208" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E208" s="30"/>
       <c r="F208" s="30"/>
     </row>
-    <row r="209" spans="5:7">
+    <row r="209" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E209" s="30"/>
       <c r="F209" s="30"/>
       <c r="G209" s="30"/>
     </row>
-    <row r="210" spans="5:7">
+    <row r="210" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E210" s="30"/>
       <c r="F210" s="30"/>
       <c r="G210" s="30"/>
     </row>
-    <row r="211" spans="5:7">
+    <row r="211" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E211" s="30"/>
       <c r="F211" s="30"/>
       <c r="G211" s="30"/>
     </row>
-    <row r="212" spans="5:7">
+    <row r="212" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E212" s="30"/>
       <c r="F212" s="30"/>
       <c r="G212" s="30"/>
     </row>
-    <row r="213" spans="5:7">
+    <row r="213" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E213" s="30"/>
       <c r="F213" s="30"/>
     </row>
-    <row r="214" spans="5:7">
+    <row r="214" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E214" s="30"/>
       <c r="F214" s="30"/>
       <c r="G214" s="30"/>
     </row>
-    <row r="215" spans="5:7">
+    <row r="215" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E215" s="30"/>
       <c r="F215" s="30"/>
       <c r="G215" s="30"/>
     </row>
-    <row r="216" spans="5:7">
+    <row r="216" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E216" s="30"/>
       <c r="F216" s="30"/>
       <c r="G216" s="30"/>
     </row>
-    <row r="217" spans="5:7">
+    <row r="217" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E217" s="30"/>
       <c r="F217" s="30"/>
       <c r="G217" s="30"/>
     </row>
-    <row r="218" spans="5:7">
+    <row r="218" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E218" s="30"/>
       <c r="F218" s="30"/>
       <c r="G218" s="30"/>
     </row>
-    <row r="219" spans="5:7">
+    <row r="219" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E219" s="30"/>
       <c r="F219" s="30"/>
       <c r="G219" s="30"/>
     </row>
-    <row r="220" spans="5:7">
+    <row r="220" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E220" s="30"/>
       <c r="F220" s="30"/>
       <c r="G220" s="30"/>
     </row>
-    <row r="221" spans="5:7">
+    <row r="221" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E221" s="30"/>
       <c r="F221" s="30"/>
       <c r="G221" s="30"/>
     </row>
-    <row r="222" spans="5:7">
+    <row r="222" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E222" s="30"/>
       <c r="F222" s="30"/>
       <c r="G222" s="30"/>
     </row>
-    <row r="223" spans="5:7">
+    <row r="223" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E223" s="30"/>
       <c r="F223" s="30"/>
     </row>
-    <row r="224" spans="5:7">
+    <row r="224" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E224" s="30"/>
       <c r="F224" s="30"/>
       <c r="G224" s="30"/>
     </row>
-    <row r="225" spans="5:7">
+    <row r="225" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E225" s="30"/>
       <c r="F225" s="30"/>
       <c r="G225" s="30"/>
     </row>
-    <row r="226" spans="5:7">
+    <row r="226" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E226" s="30"/>
       <c r="F226" s="30"/>
       <c r="G226" s="30"/>
     </row>
-    <row r="227" spans="5:7">
+    <row r="227" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E227" s="30"/>
       <c r="F227" s="30"/>
       <c r="G227" s="30"/>
     </row>
-    <row r="228" spans="5:7">
+    <row r="228" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E228" s="30"/>
       <c r="F228" s="30"/>
       <c r="G228" s="30"/>
     </row>
-    <row r="229" spans="5:7">
+    <row r="229" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E229" s="30"/>
       <c r="F229" s="30"/>
     </row>
-    <row r="230" spans="5:7">
+    <row r="230" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E230" s="30"/>
       <c r="F230" s="30"/>
       <c r="G230" s="30"/>
     </row>
-    <row r="231" spans="5:7">
+    <row r="231" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E231" s="30"/>
       <c r="F231" s="30"/>
       <c r="G231" s="30"/>
     </row>
-    <row r="232" spans="5:7">
+    <row r="232" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E232" s="30"/>
       <c r="F232" s="30"/>
       <c r="G232" s="30"/>
     </row>
-    <row r="233" spans="5:7">
+    <row r="233" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E233" s="30"/>
       <c r="F233" s="30"/>
       <c r="G233" s="30"/>
     </row>
-    <row r="234" spans="5:7">
+    <row r="234" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E234" s="30"/>
       <c r="F234" s="30"/>
       <c r="G234" s="30"/>
     </row>
-    <row r="235" spans="5:7">
+    <row r="235" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E235" s="30"/>
       <c r="F235" s="30"/>
     </row>
-    <row r="236" spans="5:7">
+    <row r="236" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E236" s="30"/>
       <c r="F236" s="30"/>
       <c r="G236" s="30"/>
     </row>
-    <row r="237" spans="5:7">
+    <row r="237" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E237" s="30"/>
       <c r="F237" s="30"/>
     </row>
-    <row r="238" spans="5:7">
+    <row r="238" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E238" s="30"/>
       <c r="F238" s="30"/>
       <c r="G238" s="30"/>
     </row>
-    <row r="239" spans="5:7">
+    <row r="239" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E239" s="30"/>
       <c r="F239" s="30"/>
     </row>
-    <row r="240" spans="5:7">
+    <row r="240" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E240" s="30"/>
       <c r="F240" s="30"/>
       <c r="G240" s="30"/>
     </row>
-    <row r="241" spans="5:7">
+    <row r="241" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E241" s="30"/>
       <c r="F241" s="30"/>
       <c r="G241" s="30"/>
     </row>
-    <row r="242" spans="5:7">
+    <row r="242" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E242" s="30"/>
       <c r="F242" s="30"/>
     </row>
-    <row r="243" spans="5:7">
+    <row r="243" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E243" s="30"/>
       <c r="F243" s="30"/>
       <c r="G243" s="30"/>
     </row>
-    <row r="244" spans="5:7">
+    <row r="244" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E244" s="30"/>
       <c r="F244" s="30"/>
     </row>
-    <row r="245" spans="5:7">
+    <row r="245" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E245" s="30"/>
       <c r="F245" s="30"/>
     </row>
-    <row r="246" spans="5:7">
+    <row r="246" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E246" s="30"/>
       <c r="F246" s="30"/>
     </row>
-    <row r="247" spans="5:7">
+    <row r="247" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E247" s="30"/>
       <c r="F247" s="30"/>
     </row>
-    <row r="248" spans="5:7">
+    <row r="248" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E248" s="30"/>
       <c r="F248" s="30"/>
     </row>
-    <row r="249" spans="5:7">
+    <row r="249" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E249" s="30"/>
       <c r="F249" s="30"/>
     </row>
-    <row r="250" spans="5:7">
+    <row r="250" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E250" s="30"/>
       <c r="F250" s="30"/>
       <c r="G250" s="30"/>
     </row>
-    <row r="251" spans="5:7">
+    <row r="251" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E251" s="30"/>
       <c r="F251" s="30"/>
     </row>
-    <row r="252" spans="5:7">
+    <row r="252" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E252" s="30"/>
       <c r="F252" s="30"/>
     </row>
-    <row r="253" spans="5:7">
+    <row r="253" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E253" s="30"/>
     </row>
-    <row r="254" spans="5:7">
+    <row r="254" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E254" s="30"/>
     </row>
-    <row r="255" spans="5:7">
+    <row r="255" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E255" s="30"/>
     </row>
-    <row r="256" spans="5:7">
+    <row r="256" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E256" s="30"/>
     </row>
-    <row r="257" spans="5:5">
+    <row r="257" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E257" s="30"/>
     </row>
-    <row r="258" spans="5:5">
+    <row r="258" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E258" s="30"/>
     </row>
-    <row r="259" spans="5:5">
+    <row r="259" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E259" s="30"/>
     </row>
-    <row r="260" spans="5:5">
+    <row r="260" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E260" s="30"/>
     </row>
-    <row r="261" spans="5:5">
+    <row r="261" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E261" s="30"/>
     </row>
-    <row r="262" spans="5:5">
+    <row r="262" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E262" s="30"/>
     </row>
-    <row r="263" spans="5:5">
+    <row r="263" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E263" s="30"/>
     </row>
-    <row r="264" spans="5:5">
+    <row r="264" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E264" s="30"/>
     </row>
-    <row r="265" spans="5:5">
+    <row r="265" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E265" s="30"/>
     </row>
   </sheetData>
